--- a/va_facility_data_2025-02-20/Lake County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lake%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lake County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lake%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd8b36b2f119c4a7383cc695284ec0ac4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R74b977152dde4bf1b831b93735352ae0"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R593c372ab86e4d249e2f9c9aaaa0050d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Raea114399bb14a1896434e154b3144bc"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8acc4f42c41c44d3a3a84fe72591b568"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3504104f106940be9c903bb2dfdb150d"/>
   </x:sheets>
 </x:workbook>
 </file>
